--- a/alkane_properties.xlsx
+++ b/alkane_properties.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newellwashburn/Documents/Organic Chemistry/Modern Organic Chemistry 2024/Machine Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D40980-C92A-0D45-AD3B-DC2B786E983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611FF04-E717-B346-BE57-C836F87B20DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="960" windowWidth="27180" windowHeight="16440" xr2:uid="{CFE9F77F-0C05-5348-AC5A-54F450F7F1B6}"/>
+    <workbookView xWindow="3640" yWindow="960" windowWidth="27180" windowHeight="16440" activeTab="1" xr2:uid="{CFE9F77F-0C05-5348-AC5A-54F450F7F1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -610,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E38BD5-8870-8047-9013-4C95B47E4994}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -1533,4 +1534,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F828EF6-4C46-4940-8399-14812A5D2872}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>